--- a/excel1_unprotected.xlsx
+++ b/excel1_unprotected.xlsx
@@ -9,6 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{7937472C-B422-4C7F-AC14-5A43AF49BCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="EAtW6tUq5YAcxMSKdPr9t1zkBhyTSNqmyyKuHe79J2i/4YZKnlOEgZswvfpVesE4BSMhirIOqS7KW1g6E1pFWA==" workbookSaltValue="qW3J/QmnK5RlRUGY61M0bQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A15CAB8F-543A-418E-BEE8-66F85D918EE8}"/>
   </bookViews>
@@ -466,6 +467,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="s6m2wMIRSCzhDDMoXok/o8JLoEALXAf7LzgflohyT+fMI/tDbT27e76TQBMlaM2mz8OXqh5SzThtizyxOUzZ+g==" saltValue="meBTmZ/oKH94mHa+9psdWg==" spinCount="100000" sheet="1" objects="1" formatColumns="0" insertRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>